--- a/inhibition_analysis/mutation ttest.xlsx
+++ b/inhibition_analysis/mutation ttest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Sumoylation_Analysis\project\inhibition_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACD70E9-8243-4B0C-8ADD-F8E05AC8AA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB064DB-0B1C-4138-A4B7-BEEFF2530834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16605" yWindow="1980" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F8091D5F-FF15-403F-939D-9837564BA418}"/>
+    <workbookView xWindow="-22545" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{F8091D5F-FF15-403F-939D-9837564BA418}"/>
   </bookViews>
   <sheets>
     <sheet name="Pancreatic" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Gene</t>
   </si>
@@ -86,13 +86,55 @@
   </si>
   <si>
     <t>XRCC family</t>
+  </si>
+  <si>
+    <t>BRCA family + ATR</t>
+  </si>
+  <si>
+    <t>combined ATR with BRCA genes</t>
+  </si>
+  <si>
+    <t>BRCA family + RAD family</t>
+  </si>
+  <si>
+    <t>combined RAD genes with BRCA genes</t>
+  </si>
+  <si>
+    <t>BRCA family + RAD1</t>
+  </si>
+  <si>
+    <t>BRCA family + RAD54L</t>
+  </si>
+  <si>
+    <t>combined RAD1 with BRCA genes</t>
+  </si>
+  <si>
+    <t>combined RAD54L with BRCA genes</t>
+  </si>
+  <si>
+    <t>BRCA family + RAD51AP2</t>
+  </si>
+  <si>
+    <t>BRCA family + FANC family</t>
+  </si>
+  <si>
+    <t>combined FANC genes with BRCA genes</t>
+  </si>
+  <si>
+    <t>combined RAD51AP2 with BRCA genes</t>
+  </si>
+  <si>
+    <t>BRCA family + FANCI</t>
+  </si>
+  <si>
+    <t>combined FANCI with BRCA genes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +157,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,20 +187,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7964265E-498B-4B41-91CF-32B1F2B15351}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
@@ -476,153 +558,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>436.47</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>423.88</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>391.54</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>423.95</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>162.61000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>424.08949999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.215</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>303.62</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>424.07650000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>2.9180000000000001E-2</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>442.43900000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>423.7996</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>0.65969999999999995</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>295.73</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>424</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>362.76249999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>424.07920000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.27639999999999998</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>300.99</v>
+      </c>
+      <c r="C11" s="4">
+        <v>424.15800000000002</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.2979999999999999E-3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>341.3014</v>
+      </c>
+      <c r="C12" s="4">
+        <v>424.10750000000002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.0620000000000003E-2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>302.04199999999997</v>
+      </c>
+      <c r="C13" s="4">
+        <v>424.11720000000003</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6.5659999999999998E-3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>321.73200000000003</v>
+      </c>
+      <c r="C14" s="4">
+        <v>424.08600000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>339.84</v>
+      </c>
+      <c r="C15" s="4">
+        <v>424.05720000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.1244</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>343.04829999999998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>424.23259999999999</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.6120000000000001E-2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>342.17200000000003</v>
+      </c>
+      <c r="C17" s="4">
+        <v>424.05349999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -634,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CDEC45-924A-49EC-9D99-A06B50457B8B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/inhibition_analysis/mutation ttest.xlsx
+++ b/inhibition_analysis/mutation ttest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Sumoylation_Analysis\project\inhibition_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB064DB-0B1C-4138-A4B7-BEEFF2530834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C20AA-6B5D-4267-849A-37A572324C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22545" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{F8091D5F-FF15-403F-939D-9837564BA418}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Gene</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>combined FANCI with BRCA genes</t>
+  </si>
+  <si>
+    <t>BRCA+FANC+RAD+ATR</t>
+  </si>
+  <si>
+    <t>combined all significant genes from above</t>
   </si>
 </sst>
 </file>
@@ -544,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7964265E-498B-4B41-91CF-32B1F2B15351}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +822,23 @@
       </c>
       <c r="E17" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4">
+        <v>346.0394</v>
+      </c>
+      <c r="C18" s="4">
+        <v>424.3458</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.1089999999999999E-2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
